--- a/Data_file/import_journal.xlsx
+++ b/Data_file/import_journal.xlsx
@@ -423,10 +423,21 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="34.109375" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">

--- a/Data_file/import_journal.xlsx
+++ b/Data_file/import_journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="288">
   <si>
     <t xml:space="preserve">number </t>
   </si>
@@ -59,49 +59,835 @@
     <t>credit</t>
   </si>
   <si>
-    <t>CR24110001</t>
-  </si>
-  <si>
-    <t>11/30/2024</t>
-  </si>
-  <si>
-    <t>OB-ค้างจ่าย</t>
-  </si>
-  <si>
-    <t>PRPR00044351</t>
-  </si>
-  <si>
-    <t>911000 OB-AP</t>
-  </si>
-  <si>
-    <t>214102 ค่าใช้จ่ายค้างจ่าย</t>
-  </si>
-  <si>
-    <t>CSC002</t>
-  </si>
-  <si>
-    <t>CSC COMPLEX CENTER SOLE CO.,LTD.</t>
-  </si>
-  <si>
-    <t>-CSC COMPLEX CENTER SOLE CO.,LTD.</t>
-  </si>
-  <si>
-    <t>CR18030032</t>
-  </si>
-  <si>
-    <t>3/31/2018</t>
-  </si>
-  <si>
-    <t>PRPR00008241</t>
-  </si>
-  <si>
-    <t>CR18060039</t>
-  </si>
-  <si>
-    <t>6/30/2018</t>
-  </si>
-  <si>
-    <t>PRPR00011618</t>
+    <t>Miscellaneous Operations</t>
+  </si>
+  <si>
+    <t>Mogen OB</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>111000</t>
+  </si>
+  <si>
+    <t>112000</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>113001</t>
+  </si>
+  <si>
+    <t>113002</t>
+  </si>
+  <si>
+    <t>11400</t>
+  </si>
+  <si>
+    <t>114100</t>
+  </si>
+  <si>
+    <t>114200</t>
+  </si>
+  <si>
+    <t>114201</t>
+  </si>
+  <si>
+    <t>114300</t>
+  </si>
+  <si>
+    <t>11500</t>
+  </si>
+  <si>
+    <t>115100</t>
+  </si>
+  <si>
+    <t>115200</t>
+  </si>
+  <si>
+    <t>115300</t>
+  </si>
+  <si>
+    <t>115400</t>
+  </si>
+  <si>
+    <t>115500</t>
+  </si>
+  <si>
+    <t>115600</t>
+  </si>
+  <si>
+    <t>115700</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>116100</t>
+  </si>
+  <si>
+    <t>116101</t>
+  </si>
+  <si>
+    <t>116102</t>
+  </si>
+  <si>
+    <t>116103</t>
+  </si>
+  <si>
+    <t>116104</t>
+  </si>
+  <si>
+    <t>116105</t>
+  </si>
+  <si>
+    <t>116106</t>
+  </si>
+  <si>
+    <t>116107</t>
+  </si>
+  <si>
+    <t>116108</t>
+  </si>
+  <si>
+    <t>116200</t>
+  </si>
+  <si>
+    <t>116201</t>
+  </si>
+  <si>
+    <t>116202</t>
+  </si>
+  <si>
+    <t>116203</t>
+  </si>
+  <si>
+    <t>116300</t>
+  </si>
+  <si>
+    <t>116400</t>
+  </si>
+  <si>
+    <t>116500</t>
+  </si>
+  <si>
+    <t>116600</t>
+  </si>
+  <si>
+    <t>116700</t>
+  </si>
+  <si>
+    <t>116800</t>
+  </si>
+  <si>
+    <t>117000</t>
+  </si>
+  <si>
+    <t>117101</t>
+  </si>
+  <si>
+    <t>117102</t>
+  </si>
+  <si>
+    <t>117103</t>
+  </si>
+  <si>
+    <t>117104</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>120000</t>
+  </si>
+  <si>
+    <t>121000</t>
+  </si>
+  <si>
+    <t>121100</t>
+  </si>
+  <si>
+    <t>121101</t>
+  </si>
+  <si>
+    <t>121102</t>
+  </si>
+  <si>
+    <t>122000</t>
+  </si>
+  <si>
+    <t>122101</t>
+  </si>
+  <si>
+    <t>122102</t>
+  </si>
+  <si>
+    <t>122103</t>
+  </si>
+  <si>
+    <t>122104</t>
+  </si>
+  <si>
+    <t>122105</t>
+  </si>
+  <si>
+    <t>122106</t>
+  </si>
+  <si>
+    <t>122107</t>
+  </si>
+  <si>
+    <t>122108</t>
+  </si>
+  <si>
+    <t>122109</t>
+  </si>
+  <si>
+    <t>122110</t>
+  </si>
+  <si>
+    <t>122111</t>
+  </si>
+  <si>
+    <t>122112</t>
+  </si>
+  <si>
+    <t>122113</t>
+  </si>
+  <si>
+    <t>122114</t>
+  </si>
+  <si>
+    <t>122115</t>
+  </si>
+  <si>
+    <t>122116</t>
+  </si>
+  <si>
+    <t>122117</t>
+  </si>
+  <si>
+    <t>122118</t>
+  </si>
+  <si>
+    <t>122119</t>
+  </si>
+  <si>
+    <t>12300</t>
+  </si>
+  <si>
+    <t>123101</t>
+  </si>
+  <si>
+    <t>123102</t>
+  </si>
+  <si>
+    <t>123103</t>
+  </si>
+  <si>
+    <t>123104</t>
+  </si>
+  <si>
+    <t>123105</t>
+  </si>
+  <si>
+    <t>123106</t>
+  </si>
+  <si>
+    <t>123107</t>
+  </si>
+  <si>
+    <t>123108</t>
+  </si>
+  <si>
+    <t>123109</t>
+  </si>
+  <si>
+    <t>123110</t>
+  </si>
+  <si>
+    <t>123111</t>
+  </si>
+  <si>
+    <t>123112</t>
+  </si>
+  <si>
+    <t>130000</t>
+  </si>
+  <si>
+    <t>131000</t>
+  </si>
+  <si>
+    <t>131100</t>
+  </si>
+  <si>
+    <t>131200</t>
+  </si>
+  <si>
+    <t>131300</t>
+  </si>
+  <si>
+    <t>140000</t>
+  </si>
+  <si>
+    <t>141000</t>
+  </si>
+  <si>
+    <t>142000</t>
+  </si>
+  <si>
+    <t>143000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>210000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>211100</t>
+  </si>
+  <si>
+    <t>211200</t>
+  </si>
+  <si>
+    <t>211300</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>212100</t>
+  </si>
+  <si>
+    <t>212200</t>
+  </si>
+  <si>
+    <t>213000</t>
+  </si>
+  <si>
+    <t>213100</t>
+  </si>
+  <si>
+    <t>213101</t>
+  </si>
+  <si>
+    <t>213102</t>
+  </si>
+  <si>
+    <t>213103</t>
+  </si>
+  <si>
+    <t>213104</t>
+  </si>
+  <si>
+    <t>213105</t>
+  </si>
+  <si>
+    <t>213106</t>
+  </si>
+  <si>
+    <t>214100</t>
+  </si>
+  <si>
+    <t>214101</t>
+  </si>
+  <si>
+    <t>214102</t>
+  </si>
+  <si>
+    <t>214103</t>
+  </si>
+  <si>
+    <t>214104</t>
+  </si>
+  <si>
+    <t>214105</t>
+  </si>
+  <si>
+    <t>214106</t>
+  </si>
+  <si>
+    <t>214107</t>
+  </si>
+  <si>
+    <t>215000</t>
+  </si>
+  <si>
+    <t>215100</t>
+  </si>
+  <si>
+    <t>215200</t>
+  </si>
+  <si>
+    <t>215300</t>
+  </si>
+  <si>
+    <t>215400</t>
+  </si>
+  <si>
+    <t>215500</t>
+  </si>
+  <si>
+    <t>215600</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>216100</t>
+  </si>
+  <si>
+    <t>220000</t>
+  </si>
+  <si>
+    <t>221000</t>
+  </si>
+  <si>
+    <t>222000</t>
+  </si>
+  <si>
+    <t>223000</t>
+  </si>
+  <si>
+    <t>224000</t>
+  </si>
+  <si>
+    <t>225000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>311000</t>
+  </si>
+  <si>
+    <t>311001</t>
+  </si>
+  <si>
+    <t>312100</t>
+  </si>
+  <si>
+    <t>312101</t>
+  </si>
+  <si>
+    <t>312102</t>
+  </si>
+  <si>
+    <t>สินทรัพย์</t>
+  </si>
+  <si>
+    <t>สินทรัพย์หมุนเวียน</t>
+  </si>
+  <si>
+    <t>เงินสดและเงินฝากสถาบันการเงิน</t>
+  </si>
+  <si>
+    <t>เงินสด</t>
+  </si>
+  <si>
+    <t>เงินสดย่อย</t>
+  </si>
+  <si>
+    <t>เงินฝากธนาคาร</t>
+  </si>
+  <si>
+    <t>เงินทดรองจ่าย</t>
+  </si>
+  <si>
+    <t>เงินทดรองจ่ายที่ดิน</t>
+  </si>
+  <si>
+    <t>ลูกหนี้การค้าและตั๋วเงินรับ</t>
+  </si>
+  <si>
+    <t>ตั๋วเงินรับรอเรียกเก็บ</t>
+  </si>
+  <si>
+    <t>ลูกหนี้การค้าในประเทศ</t>
+  </si>
+  <si>
+    <t>ค่าเผื่อหนี้สงสัยจะสูญ</t>
+  </si>
+  <si>
+    <t>ลูกหนี้การค้าต่างประเทศ</t>
+  </si>
+  <si>
+    <t>สินค้าคงเหลือ</t>
+  </si>
+  <si>
+    <t>หีบห่อคงเหลือ</t>
+  </si>
+  <si>
+    <t>สินค้าระหว่างทำ (WIP)</t>
+  </si>
+  <si>
+    <t>สินค้าตัวอย่าง</t>
+  </si>
+  <si>
+    <t>สำรองค่าเผื่อสินค้าแตกชำรุด</t>
+  </si>
+  <si>
+    <t>สินค้าระหว่างทาง</t>
+  </si>
+  <si>
+    <t>สำรองค่าเผื่อสินค้าล้าสมัย</t>
+  </si>
+  <si>
+    <t>สินทรัพย์หมุนเวียนอื่น</t>
+  </si>
+  <si>
+    <t>ค่าใช้จ่ายจ่ายล่วงหน้า</t>
+  </si>
+  <si>
+    <t>ภาษีถูกหัก ณที่จ่าย</t>
+  </si>
+  <si>
+    <t>ค่าเบี้ยประกันภัยจ่ายล่วงหน้า</t>
+  </si>
+  <si>
+    <t>ดอกเบี้ยจ่ายล่วงหน้า</t>
+  </si>
+  <si>
+    <t>ภาษีเงินได้นิติบุคคลจ่ายล่วงหน้า</t>
+  </si>
+  <si>
+    <t>ค่าใช้จ่ายเกี่ยวกับพาหนะจ่ายล่วงหน้า</t>
+  </si>
+  <si>
+    <t>ค่าอากรขาเข้าจ่ายล่วงหน้า</t>
+  </si>
+  <si>
+    <t>เงินมัดจำ</t>
+  </si>
+  <si>
+    <t>เงินมัดจำค่าสินค้า</t>
+  </si>
+  <si>
+    <t>เงินมัดจำค่าอุปกรณ์-ต่างประเทศ</t>
+  </si>
+  <si>
+    <t>เงินมัดจำอื่นๆ</t>
+  </si>
+  <si>
+    <t>ดอกเบี้ยค้างรับ</t>
+  </si>
+  <si>
+    <t>ภาษีซื้อ</t>
+  </si>
+  <si>
+    <t>ภาษีซื้อรอขอคืน</t>
+  </si>
+  <si>
+    <t>ภาษีซื้อไม่ถึงกำหนด</t>
+  </si>
+  <si>
+    <t>ลูกหนี้กรมสรรพากร</t>
+  </si>
+  <si>
+    <t>ลูกหนี้อื่น</t>
+  </si>
+  <si>
+    <t>ค่าใช้จ่ายรอตัดบัญชี</t>
+  </si>
+  <si>
+    <t>เครื่องหมายการค้ารอตัดบัญชี</t>
+  </si>
+  <si>
+    <t>ดอกผลเช่าซื้อรอตัดบัญชี</t>
+  </si>
+  <si>
+    <t>ลิขสิทธิ์รอตัดบัญชี</t>
+  </si>
+  <si>
+    <t>รายจ่ายรอตัดบัญชี</t>
+  </si>
+  <si>
+    <t>สินทรัพย์ไม่หมุนเวียน</t>
+  </si>
+  <si>
+    <t>ที่ดิน อาคารและอุปกรณ์</t>
+  </si>
+  <si>
+    <t>ที่ดิน</t>
+  </si>
+  <si>
+    <t>ส่วนเพิ่มเติมในที่ดิน</t>
+  </si>
+  <si>
+    <t>ดอกเบี้ยจ่ายต้นทุนที่ดิน</t>
+  </si>
+  <si>
+    <t>อาคารและทรัพย์สินอื่น</t>
+  </si>
+  <si>
+    <t>อาคารคลังสินค้า</t>
+  </si>
+  <si>
+    <t>อาคารสำนักงาน</t>
+  </si>
+  <si>
+    <t>อาคารระหว่างก่อสร้าง</t>
+  </si>
+  <si>
+    <t>ดอกเบี้ยจ่ายต้นทุนอาคารระหว่างก่อสร้าง</t>
+  </si>
+  <si>
+    <t>สิ่งปลูกสร้างอื่น</t>
+  </si>
+  <si>
+    <t>สิ่งปลูกสร้างอื่นระหว่างก่อสร้าง</t>
+  </si>
+  <si>
+    <t>ส่วนต่อเติมอาคาร</t>
+  </si>
+  <si>
+    <t>ส่วนต่อเติมระหว่างก่อสร้าง</t>
+  </si>
+  <si>
+    <t>เครื่องจักรและอุปกรณ์เครื่องมือเครื่องใช้</t>
+  </si>
+  <si>
+    <t>ยานพาหนะ</t>
+  </si>
+  <si>
+    <t>ส่วนต่อเติมยานพาหนะ</t>
+  </si>
+  <si>
+    <t>ค่าโปรแกรมสำเร็จรูป</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>โมลด์แม่พิมพ์</t>
+  </si>
+  <si>
+    <t>โมลด์ระหว่างทำ</t>
+  </si>
+  <si>
+    <t>เครื่องมือเครื่องใช้</t>
+  </si>
+  <si>
+    <t>เครื่องตกแต่งและเครื่องใช้สำนักงาน</t>
+  </si>
+  <si>
+    <t>Display ระหว่างทำ</t>
+  </si>
+  <si>
+    <t>งานพัฒนาผลิตภัณฑ์ระหว่างทำ</t>
+  </si>
+  <si>
+    <t>ค่าเสื่อมราคาสะสม</t>
+  </si>
+  <si>
+    <t>ค่าเสื่อมราคาสะสม-อาคารคลังโรงงาน</t>
+  </si>
+  <si>
+    <t>ค่าเสื่อมราคาสะสม-อาคารสำนักงาน</t>
+  </si>
+  <si>
+    <t>ค่าเสื่อมราคาสะสมสิ่งปลูกสร้างอื่น</t>
+  </si>
+  <si>
+    <t>ค่าเสื่อมราคาสะสม-ส่วนต่อเติมอาคาร</t>
+  </si>
+  <si>
+    <t>ค่าเสื่อมราคาสะสม-เครื่องจักรและอุปกรณ์</t>
+  </si>
+  <si>
+    <t>ค่าเสื่อมราคาสะสม-เครื่องตกแต่งและเครื่องใช้สำนักงาน</t>
+  </si>
+  <si>
+    <t>ค่าเสื่อมราคาสะสม-ยานพาหนะ</t>
+  </si>
+  <si>
+    <t>Amortization</t>
+  </si>
+  <si>
+    <t>ค่าเสื่อมราคาสะสม-Display</t>
+  </si>
+  <si>
+    <t>ค่าเสื่อมราคาสะสม-โมลด์แม่พิมพ์</t>
+  </si>
+  <si>
+    <t>ค่าเสื่อมราคาสะสม - เครื่องมือเครื่องใช้</t>
+  </si>
+  <si>
+    <t>ค่าเสื่อมราคาสะสม-ส่วนต่อเติมยานพานะ</t>
+  </si>
+  <si>
+    <t>สินทรัพย์อื่น</t>
+  </si>
+  <si>
+    <t>เงินประกัน</t>
+  </si>
+  <si>
+    <t>เงินประกันไฟฟ้า</t>
+  </si>
+  <si>
+    <t>เงินประกันอื่น</t>
+  </si>
+  <si>
+    <t>เงินค้ำประกันค่าสินค้า</t>
+  </si>
+  <si>
+    <t>เงินกู้ยืมระยะยาวบุคคลที่เกี่ยวข้องกัน</t>
+  </si>
+  <si>
+    <t>เงินให้กู้ยืมระยะยาวกรรมการ</t>
+  </si>
+  <si>
+    <t>เงินให้กู้ยืมระยะยาวพนักงาน</t>
+  </si>
+  <si>
+    <t>เงินให้กู้ยืมระยะยาวบริษัทในเครือ</t>
+  </si>
+  <si>
+    <t>หนี้สิน</t>
+  </si>
+  <si>
+    <t>หนี้สินหมุนเวียน</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าและตั๋วเงินจ่าย</t>
+  </si>
+  <si>
+    <t>ตั๋วเงินจ่าย</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าต่างประเทศ</t>
+  </si>
+  <si>
+    <t>เงินกู้ยืมระยะสั้นจากธนาคาร</t>
+  </si>
+  <si>
+    <t>เงินกู้ยืมระยะสั้นจากธนาคาร(PN)</t>
+  </si>
+  <si>
+    <t>เงินกู้ยืมระยะสั้นจากธนาคาร(TR)</t>
+  </si>
+  <si>
+    <t>หนี้สินหมุนเวียนอื่น</t>
+  </si>
+  <si>
+    <t>หนี้สินด้านภาษีอากร</t>
+  </si>
+  <si>
+    <t>ภาษีเงินได้นิติบุคคลค้างจ่าย</t>
+  </si>
+  <si>
+    <t>ภาษีหัก ณ ที่จ่ายค้างจ่าย</t>
+  </si>
+  <si>
+    <t>ภาษีมูลค่าเพิ่มค้างจ่าย</t>
+  </si>
+  <si>
+    <t>ภาษีขาย</t>
+  </si>
+  <si>
+    <t>ภาษีขายรอเรียกเก็บ</t>
+  </si>
+  <si>
+    <t>ภาษีธุรกิจเฉพาะค้างจ่าย</t>
+  </si>
+  <si>
+    <t>ค่าใช้จ่ายค้างจ่าย</t>
+  </si>
+  <si>
+    <t>เงินประกันสังคมค้างจ่าย</t>
+  </si>
+  <si>
+    <t>ดอกเบี้ยค้างจ่าย</t>
+  </si>
+  <si>
+    <t>เงินค้ำประกันพนักงาน</t>
+  </si>
+  <si>
+    <t>ค่าแรงงานรายวันค้างจ่าย</t>
+  </si>
+  <si>
+    <t>เงินโบนัสและเงินรางวัลค้างจ่าย</t>
+  </si>
+  <si>
+    <t>เงินปันผลค้างจ่าย</t>
+  </si>
+  <si>
+    <t>หนี้สินอื่น</t>
+  </si>
+  <si>
+    <t>เงินมัดจำรับค่าสินค้า</t>
+  </si>
+  <si>
+    <t>ค่าความเสียหายรอตัดจ่าย</t>
+  </si>
+  <si>
+    <t>เงินรับล่วงหน้าค่าสินค้า</t>
+  </si>
+  <si>
+    <t>เงินประกันความเสียหาย</t>
+  </si>
+  <si>
+    <t>เงินค่าหุ้นรับล่วงหน้า</t>
+  </si>
+  <si>
+    <t>รายได้รอตัดบัญชี</t>
+  </si>
+  <si>
+    <t>เงินกู้ยืมระยะสั้น</t>
+  </si>
+  <si>
+    <t>เงินกู้ยืมระยะสั้นบริษัทในเครือ</t>
+  </si>
+  <si>
+    <t>หนี้สินระยะยาว</t>
+  </si>
+  <si>
+    <t>เงินกู้ยืมระยะยาวจากธนาคาร</t>
+  </si>
+  <si>
+    <t>เงินกู้ยืมจากกรรมการ</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้ผ่อนชำระทรัพย์สิน</t>
+  </si>
+  <si>
+    <t>หนี้สินระยะยาวที่ถึงกำหนดภายในหนึ่งปี</t>
+  </si>
+  <si>
+    <t>ภาระผูกพันธ์ผลประโยชน์พนักงาน</t>
+  </si>
+  <si>
+    <t>ส่วนของเจ้าของ</t>
+  </si>
+  <si>
+    <t>ทุน หุ้นสามัญ</t>
+  </si>
+  <si>
+    <t>ส่วนเกินทุนจากการตีราคาทรัพย์สิน</t>
+  </si>
+  <si>
+    <t>กำไรสะสม</t>
+  </si>
+  <si>
+    <t>สำรองตามกฏหมาย</t>
+  </si>
+  <si>
+    <t>OB_MOGEN_GL</t>
   </si>
 </sst>
 </file>
@@ -138,8 +924,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -420,23 +1210,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
     <col min="4" max="4" width="18.109375" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="14.21875" customWidth="1"/>
     <col min="8" max="8" width="34.109375" customWidth="1"/>
-    <col min="9" max="9" width="21.77734375" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -476,98 +1268,2125 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45716</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="1"/>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2">
-        <v>1661.43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="J3">
-        <v>5549.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="1"/>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5">
+        <v>68928.850000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="1"/>
+      <c r="E6" s="2">
+        <v>111001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="1"/>
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7">
+        <v>17536889.760000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="1"/>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="1"/>
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="J4">
-        <v>13653.83</v>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9">
+        <v>370121.69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="1"/>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10">
+        <v>26040793.550000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="1"/>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="1"/>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12">
+        <v>482866.14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="1"/>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13">
+        <v>94801569.810000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="1"/>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>164</v>
+      </c>
+      <c r="J14">
+        <v>-494262.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="1"/>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15">
+        <v>-56079.77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="1"/>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="1"/>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17">
+        <v>161523007.80000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="1"/>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18">
+        <v>1239145.51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="1"/>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19">
+        <v>2047846</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="1"/>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20">
+        <v>793281.49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="1"/>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21">
+        <v>-14608582.199999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="1"/>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22">
+        <v>197470.74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="1"/>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23">
+        <v>-115456.9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="1"/>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="1"/>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="1"/>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>175</v>
+      </c>
+      <c r="J26">
+        <v>123618.3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="1"/>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27">
+        <v>102961.71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="1"/>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28">
+        <v>49430.16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="1"/>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="1"/>
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>178</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="1"/>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
+        <v>179</v>
+      </c>
+      <c r="J31">
+        <v>12949.49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="1"/>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>177</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="1"/>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>180</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="1"/>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>181</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="1"/>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>182</v>
+      </c>
+      <c r="J35">
+        <v>2104288.98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="1"/>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s">
+        <v>183</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="1"/>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>184</v>
+      </c>
+      <c r="J37">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="1"/>
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" t="s">
+        <v>185</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="1"/>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>186</v>
+      </c>
+      <c r="J39">
+        <v>542912.03</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="1"/>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>187</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="1"/>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>188</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="1"/>
+      <c r="E42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>189</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="1"/>
+      <c r="E43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
+        <v>190</v>
+      </c>
+      <c r="J43">
+        <v>84271.77</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="1"/>
+      <c r="E44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="1"/>
+      <c r="E45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
+        <v>192</v>
+      </c>
+      <c r="J45">
+        <v>220.32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="1"/>
+      <c r="E46" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" t="s">
+        <v>193</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="1"/>
+      <c r="E47" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" t="s">
+        <v>194</v>
+      </c>
+      <c r="J47">
+        <v>975743.95</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="1"/>
+      <c r="E48" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" t="s">
+        <v>195</v>
+      </c>
+      <c r="J48">
+        <v>3539979.01</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="1"/>
+      <c r="E49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" t="s">
+        <v>196</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="1"/>
+      <c r="E50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" t="s">
+        <v>197</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="1"/>
+      <c r="E51" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" t="s">
+        <v>198</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="1"/>
+      <c r="E52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" t="s">
+        <v>198</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="1"/>
+      <c r="E53" t="s">
+        <v>63</v>
+      </c>
+      <c r="H53" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" t="s">
+        <v>199</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="1"/>
+      <c r="E54" t="s">
+        <v>64</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
+        <v>200</v>
+      </c>
+      <c r="J54">
+        <v>1741206.45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="1"/>
+      <c r="E55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s">
+        <v>201</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="1"/>
+      <c r="E56" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" t="s">
+        <v>202</v>
+      </c>
+      <c r="J56">
+        <v>83399240</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="1"/>
+      <c r="E57" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" t="s">
+        <v>203</v>
+      </c>
+      <c r="J57">
+        <v>18884800</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="1"/>
+      <c r="E58" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" t="s">
+        <v>204</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="1"/>
+      <c r="E59" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" t="s">
+        <v>205</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="1"/>
+      <c r="E60" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" t="s">
+        <v>206</v>
+      </c>
+      <c r="J60">
+        <v>8392100</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="1"/>
+      <c r="E61" t="s">
+        <v>71</v>
+      </c>
+      <c r="H61" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" t="s">
+        <v>207</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="1"/>
+      <c r="E62" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" t="s">
+        <v>208</v>
+      </c>
+      <c r="J62">
+        <v>1954115.76</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="1"/>
+      <c r="E63" t="s">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" t="s">
+        <v>209</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="1"/>
+      <c r="E64" t="s">
+        <v>74</v>
+      </c>
+      <c r="H64" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" t="s">
+        <v>210</v>
+      </c>
+      <c r="J64">
+        <v>13665717.779999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="1"/>
+      <c r="E65" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
+        <v>211</v>
+      </c>
+      <c r="J65">
+        <v>5619520.9199999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="1"/>
+      <c r="E66" t="s">
+        <v>76</v>
+      </c>
+      <c r="H66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" t="s">
+        <v>212</v>
+      </c>
+      <c r="J66">
+        <v>55500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="1"/>
+      <c r="E67" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="1"/>
+      <c r="E68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" t="s">
+        <v>214</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="1"/>
+      <c r="E69" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" t="s">
+        <v>215</v>
+      </c>
+      <c r="J69">
+        <v>3019403.95</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="1"/>
+      <c r="E70" t="s">
+        <v>80</v>
+      </c>
+      <c r="H70" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" t="s">
+        <v>216</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="1"/>
+      <c r="E71" t="s">
+        <v>81</v>
+      </c>
+      <c r="H71" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" t="s">
+        <v>217</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="1"/>
+      <c r="E72" t="s">
+        <v>82</v>
+      </c>
+      <c r="H72" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" t="s">
+        <v>218</v>
+      </c>
+      <c r="J72">
+        <v>15466082.300000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="1"/>
+      <c r="E73" t="s">
+        <v>83</v>
+      </c>
+      <c r="H73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" t="s">
+        <v>219</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="1"/>
+      <c r="E74" t="s">
+        <v>84</v>
+      </c>
+      <c r="H74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" t="s">
+        <v>220</v>
+      </c>
+      <c r="J74">
+        <v>10576582.4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="1"/>
+      <c r="E75" t="s">
+        <v>85</v>
+      </c>
+      <c r="H75" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" t="s">
+        <v>221</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="1"/>
+      <c r="E76" t="s">
+        <v>86</v>
+      </c>
+      <c r="H76" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" t="s">
+        <v>222</v>
+      </c>
+      <c r="J76">
+        <v>-3087097.15</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="1"/>
+      <c r="E77" t="s">
+        <v>87</v>
+      </c>
+      <c r="H77" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" t="s">
+        <v>223</v>
+      </c>
+      <c r="J77">
+        <v>-699037.7</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="1"/>
+      <c r="E78" t="s">
+        <v>88</v>
+      </c>
+      <c r="H78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" t="s">
+        <v>224</v>
+      </c>
+      <c r="J78">
+        <v>-310641.08</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="1"/>
+      <c r="E79" t="s">
+        <v>89</v>
+      </c>
+      <c r="H79" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" t="s">
+        <v>225</v>
+      </c>
+      <c r="J79">
+        <v>-50396.03</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="1"/>
+      <c r="E80" t="s">
+        <v>90</v>
+      </c>
+      <c r="H80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" t="s">
+        <v>226</v>
+      </c>
+      <c r="J80">
+        <v>-7473208.9299999997</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="1"/>
+      <c r="E81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" t="s">
+        <v>227</v>
+      </c>
+      <c r="J81">
+        <v>-13880386.25</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="1"/>
+      <c r="E82" t="s">
+        <v>92</v>
+      </c>
+      <c r="H82" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" t="s">
+        <v>228</v>
+      </c>
+      <c r="J82">
+        <v>-5291661.54</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="1"/>
+      <c r="E83" t="s">
+        <v>93</v>
+      </c>
+      <c r="H83" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" t="s">
+        <v>229</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="1"/>
+      <c r="E84" t="s">
+        <v>94</v>
+      </c>
+      <c r="H84" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" t="s">
+        <v>230</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="1"/>
+      <c r="E85" t="s">
+        <v>95</v>
+      </c>
+      <c r="H85" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" t="s">
+        <v>231</v>
+      </c>
+      <c r="J85">
+        <v>-2300727.09</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="1"/>
+      <c r="E86" t="s">
+        <v>96</v>
+      </c>
+      <c r="H86" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" t="s">
+        <v>232</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="1"/>
+      <c r="E87" t="s">
+        <v>97</v>
+      </c>
+      <c r="H87" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" t="s">
+        <v>233</v>
+      </c>
+      <c r="J87">
+        <v>-55494.04</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="1"/>
+      <c r="E88" t="s">
+        <v>98</v>
+      </c>
+      <c r="H88" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" t="s">
+        <v>234</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="1"/>
+      <c r="E89" t="s">
+        <v>99</v>
+      </c>
+      <c r="H89" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" t="s">
+        <v>235</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="1"/>
+      <c r="E90" t="s">
+        <v>100</v>
+      </c>
+      <c r="H90" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" t="s">
+        <v>236</v>
+      </c>
+      <c r="J90">
+        <v>263000</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="1"/>
+      <c r="E91" t="s">
+        <v>101</v>
+      </c>
+      <c r="H91" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" t="s">
+        <v>237</v>
+      </c>
+      <c r="J91">
+        <v>1833803.57</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="1"/>
+      <c r="E92" t="s">
+        <v>102</v>
+      </c>
+      <c r="H92" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" t="s">
+        <v>238</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="1"/>
+      <c r="E93" t="s">
+        <v>103</v>
+      </c>
+      <c r="H93" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" t="s">
+        <v>239</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="1"/>
+      <c r="E94" t="s">
+        <v>104</v>
+      </c>
+      <c r="H94" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" t="s">
+        <v>240</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="1"/>
+      <c r="E95" t="s">
+        <v>105</v>
+      </c>
+      <c r="H95" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" t="s">
+        <v>241</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="1"/>
+      <c r="E96" t="s">
+        <v>106</v>
+      </c>
+      <c r="H96" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" t="s">
+        <v>242</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="1"/>
+      <c r="E97" t="s">
+        <v>107</v>
+      </c>
+      <c r="H97" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" t="s">
+        <v>243</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="1"/>
+      <c r="E98" t="s">
+        <v>108</v>
+      </c>
+      <c r="H98" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" t="s">
+        <v>244</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="1"/>
+      <c r="E99" t="s">
+        <v>109</v>
+      </c>
+      <c r="H99" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" t="s">
+        <v>245</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="1"/>
+      <c r="E100" t="s">
+        <v>110</v>
+      </c>
+      <c r="H100" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" t="s">
+        <v>246</v>
+      </c>
+      <c r="J100">
+        <v>-3164223.22</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="1"/>
+      <c r="E101" t="s">
+        <v>111</v>
+      </c>
+      <c r="H101" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" t="s">
+        <v>247</v>
+      </c>
+      <c r="J101">
+        <v>-45546094.43</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="1"/>
+      <c r="E102" t="s">
+        <v>112</v>
+      </c>
+      <c r="H102" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" t="s">
+        <v>248</v>
+      </c>
+      <c r="J102">
+        <v>-1524163.44</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="1"/>
+      <c r="E103" t="s">
+        <v>113</v>
+      </c>
+      <c r="H103" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" t="s">
+        <v>249</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="1"/>
+      <c r="E104" t="s">
+        <v>114</v>
+      </c>
+      <c r="H104" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" t="s">
+        <v>250</v>
+      </c>
+      <c r="J104">
+        <v>-116500000</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="1"/>
+      <c r="E105" t="s">
+        <v>115</v>
+      </c>
+      <c r="H105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" t="s">
+        <v>251</v>
+      </c>
+      <c r="J105">
+        <v>-31497692.239999998</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="1"/>
+      <c r="E106" t="s">
+        <v>116</v>
+      </c>
+      <c r="H106" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" t="s">
+        <v>252</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="1"/>
+      <c r="E107" t="s">
+        <v>117</v>
+      </c>
+      <c r="H107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" t="s">
+        <v>253</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="1"/>
+      <c r="E108" t="s">
+        <v>118</v>
+      </c>
+      <c r="H108" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" t="s">
+        <v>254</v>
+      </c>
+      <c r="J108">
+        <v>-237804.34</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="1"/>
+      <c r="E109" t="s">
+        <v>119</v>
+      </c>
+      <c r="H109" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" t="s">
+        <v>255</v>
+      </c>
+      <c r="J109">
+        <v>-301368.18</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="1"/>
+      <c r="E110" t="s">
+        <v>120</v>
+      </c>
+      <c r="H110" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" t="s">
+        <v>256</v>
+      </c>
+      <c r="J110">
+        <v>-1078004.6299999999</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="1"/>
+      <c r="E111" t="s">
+        <v>121</v>
+      </c>
+      <c r="H111" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" t="s">
+        <v>257</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="1"/>
+      <c r="E112" t="s">
+        <v>122</v>
+      </c>
+      <c r="H112" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" t="s">
+        <v>258</v>
+      </c>
+      <c r="J112">
+        <v>-1314500.3999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="1"/>
+      <c r="E113" t="s">
+        <v>123</v>
+      </c>
+      <c r="H113" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" t="s">
+        <v>259</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="1"/>
+      <c r="E114" t="s">
+        <v>124</v>
+      </c>
+      <c r="H114" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" t="s">
+        <v>260</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="1"/>
+      <c r="E115" t="s">
+        <v>125</v>
+      </c>
+      <c r="H115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" t="s">
+        <v>261</v>
+      </c>
+      <c r="J115">
+        <v>-388470</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="1"/>
+      <c r="E116" t="s">
+        <v>126</v>
+      </c>
+      <c r="H116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" t="s">
+        <v>260</v>
+      </c>
+      <c r="J116">
+        <v>-17930769.489999998</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="1"/>
+      <c r="E117" t="s">
+        <v>127</v>
+      </c>
+      <c r="H117" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" t="s">
+        <v>262</v>
+      </c>
+      <c r="J117">
+        <v>-37855522.340000004</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="1"/>
+      <c r="E118" t="s">
+        <v>128</v>
+      </c>
+      <c r="H118" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" t="s">
+        <v>263</v>
+      </c>
+      <c r="J118">
+        <v>-580500</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="1"/>
+      <c r="E119" t="s">
+        <v>129</v>
+      </c>
+      <c r="H119" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" t="s">
+        <v>264</v>
+      </c>
+      <c r="J119">
+        <v>-231405.51</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="1"/>
+      <c r="E120" t="s">
+        <v>130</v>
+      </c>
+      <c r="H120" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" t="s">
+        <v>265</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="1"/>
+      <c r="E121" t="s">
+        <v>131</v>
+      </c>
+      <c r="H121" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" t="s">
+        <v>266</v>
+      </c>
+      <c r="J121">
+        <v>-16000000</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="1"/>
+      <c r="E122" t="s">
+        <v>132</v>
+      </c>
+      <c r="H122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" t="s">
+        <v>267</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="1"/>
+      <c r="E123" t="s">
+        <v>133</v>
+      </c>
+      <c r="H123" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" t="s">
+        <v>268</v>
+      </c>
+      <c r="J123">
+        <v>-419885.89</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="1"/>
+      <c r="E124" t="s">
+        <v>134</v>
+      </c>
+      <c r="H124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" t="s">
+        <v>269</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="1"/>
+      <c r="E125" t="s">
+        <v>135</v>
+      </c>
+      <c r="H125" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" t="s">
+        <v>270</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="1"/>
+      <c r="E126" t="s">
+        <v>136</v>
+      </c>
+      <c r="H126" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" t="s">
+        <v>271</v>
+      </c>
+      <c r="J126">
+        <v>-50645</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="1"/>
+      <c r="E127" t="s">
+        <v>137</v>
+      </c>
+      <c r="H127" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" t="s">
+        <v>272</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="1"/>
+      <c r="E128" t="s">
+        <v>138</v>
+      </c>
+      <c r="H128" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" t="s">
+        <v>273</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="1"/>
+      <c r="E129" t="s">
+        <v>139</v>
+      </c>
+      <c r="H129" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" t="s">
+        <v>274</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="1"/>
+      <c r="E130" t="s">
+        <v>140</v>
+      </c>
+      <c r="H130" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" t="s">
+        <v>275</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="1"/>
+      <c r="E131" t="s">
+        <v>141</v>
+      </c>
+      <c r="H131" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" t="s">
+        <v>276</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="1"/>
+      <c r="E132" t="s">
+        <v>142</v>
+      </c>
+      <c r="H132" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" t="s">
+        <v>277</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="1"/>
+      <c r="E133" t="s">
+        <v>143</v>
+      </c>
+      <c r="H133" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" t="s">
+        <v>278</v>
+      </c>
+      <c r="J133">
+        <v>-12765760.939999999</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" s="1"/>
+      <c r="E134" t="s">
+        <v>144</v>
+      </c>
+      <c r="H134" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" t="s">
+        <v>279</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" s="1"/>
+      <c r="E135" t="s">
+        <v>145</v>
+      </c>
+      <c r="H135" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" t="s">
+        <v>280</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="1"/>
+      <c r="E136" t="s">
+        <v>146</v>
+      </c>
+      <c r="H136" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" t="s">
+        <v>281</v>
+      </c>
+      <c r="J136">
+        <v>-4569067.46</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10">
+      <c r="B137" s="1"/>
+      <c r="E137" t="s">
+        <v>147</v>
+      </c>
+      <c r="H137" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" t="s">
+        <v>282</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10">
+      <c r="B138" s="1"/>
+      <c r="E138" t="s">
+        <v>148</v>
+      </c>
+      <c r="H138" t="s">
+        <v>12</v>
+      </c>
+      <c r="I138" t="s">
+        <v>283</v>
+      </c>
+      <c r="J138">
+        <v>-80000000</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10">
+      <c r="B139" s="1"/>
+      <c r="E139" t="s">
+        <v>149</v>
+      </c>
+      <c r="H139" t="s">
+        <v>12</v>
+      </c>
+      <c r="I139" t="s">
+        <v>284</v>
+      </c>
+      <c r="J139">
+        <v>-98349275.890000001</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140" s="1"/>
+      <c r="E140" t="s">
+        <v>150</v>
+      </c>
+      <c r="H140" t="s">
+        <v>12</v>
+      </c>
+      <c r="I140" t="s">
+        <v>285</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" s="1"/>
+      <c r="E141" t="s">
+        <v>151</v>
+      </c>
+      <c r="H141" t="s">
+        <v>12</v>
+      </c>
+      <c r="I141" t="s">
+        <v>285</v>
+      </c>
+      <c r="J141">
+        <v>42164314.609999999</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10">
+      <c r="B142" s="1"/>
+      <c r="E142" t="s">
+        <v>152</v>
+      </c>
+      <c r="H142" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" t="s">
+        <v>286</v>
+      </c>
+      <c r="J142">
+        <v>-1000000</v>
       </c>
     </row>
   </sheetData>

--- a/Data_file/import_journal.xlsx
+++ b/Data_file/import_journal.xlsx
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
